--- a/uploads/questions.xlsx
+++ b/uploads/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dheeban Docs\Tosca_Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LakshmiPrabha\PycharmProjects\ToscaQuiz\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774CC10A-0DD4-4A55-BEB0-BC1CB28CC8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A309C8F9-CCEB-4447-9142-95CE048CD72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
@@ -49,47 +49,161 @@
     <t>text</t>
   </si>
   <si>
-    <t>What is 2 + 2?</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
-    <t>Identify this fruit:</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Mango</t>
-  </si>
-  <si>
-    <t>static/apple.jpg</t>
+    <t>To manage and organize test data for execution</t>
+  </si>
+  <si>
+    <t>To generate test scripts</t>
+  </si>
+  <si>
+    <t>To execute test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To report test results </t>
+  </si>
+  <si>
+    <t>What is the purpose of Parameterized Test Cases?</t>
+  </si>
+  <si>
+    <t>To execute test cases manually</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To execute the same test case with different input values</t>
+  </si>
+  <si>
+    <t>To generate test data</t>
+  </si>
+  <si>
+    <t>To store test scripts</t>
+  </si>
+  <si>
+    <t>To execute the same test case with different input values</t>
+  </si>
+  <si>
+    <t>How can you fetch data from an Excel file in Tosca?</t>
+  </si>
+  <si>
+    <t>By manually entering the data in the test script</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By using the Import Data feature</t>
+  </si>
+  <si>
+    <t>By using the Excel Connector plugin</t>
+  </si>
+  <si>
+    <t>By using the Excel Parameter in the test case</t>
+  </si>
+  <si>
+    <t>text_image</t>
+  </si>
+  <si>
+    <t>What is the purpose of TDS?</t>
+  </si>
+  <si>
+    <t>What is the output of the string operations?</t>
+  </si>
+  <si>
+    <t>08-05-2012</t>
+  </si>
+  <si>
+    <t>05-08-2012</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>TQL query to get the test case name Data Source Excel?</t>
+  </si>
+  <si>
+    <t>SUBPARTS:TestCase[Name=="Data Source Excel"]</t>
+  </si>
+  <si>
+    <t>SUBPARTS:TestCase[Name?="Data Source Excel"]</t>
+  </si>
+  <si>
+    <t>SUBPARTS:TestCase[Name="Data Source Excel"]</t>
+  </si>
+  <si>
+    <t>SUPERPART:TestCase[Name="Data Source Excel"]</t>
+  </si>
+  <si>
+    <t>static/tql_01.png</t>
+  </si>
+  <si>
+    <t>static/strOperations.png</t>
+  </si>
+  <si>
+    <t>In Tosca Testsuite, how can you identify objects</t>
+  </si>
+  <si>
+    <t>Identify by properties</t>
+  </si>
+  <si>
+    <t>Identify by Anchor</t>
+  </si>
+  <si>
+    <t>Identify by image</t>
+  </si>
+  <si>
+    <t>All the Above</t>
+  </si>
+  <si>
+    <t>Business parameters can also be manually defined</t>
+  </si>
+  <si>
+    <t>XML elements and attributes in the Payload tab</t>
+  </si>
+  <si>
+    <t>JSON data in the Payload tab</t>
+  </si>
+  <si>
+    <t>Transport information in requests</t>
+  </si>
+  <si>
+    <t>Application Under Test</t>
+  </si>
+  <si>
+    <t>Automated Ultrasonic Testing</t>
+  </si>
+  <si>
+    <t>Advanced Unit testing</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>Verification Failure</t>
+  </si>
+  <si>
+    <t>Dialog Failure</t>
+  </si>
+  <si>
+    <t>User-Abort</t>
+  </si>
+  <si>
+    <t>Name the type of error that occurs when the tester stops the execution?</t>
+  </si>
+  <si>
+    <t>Which of the following is a type of error available in Tosca?</t>
+  </si>
+  <si>
+    <t>AUT stands for ?</t>
+  </si>
+  <si>
+    <t>System Failure</t>
+  </si>
+  <si>
+    <t>Random Failure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +218,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF373E3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,11 +261,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,14 +573,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -506,34 +634,31 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -541,25 +666,193 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41037</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>